--- a/data/final_data/Olive Oil Experiment Participant List.xlsx
+++ b/data/final_data/Olive Oil Experiment Participant List.xlsx
@@ -6,17 +6,14 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$3:$L$99</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$3:$M$99</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="153">
-  <si>
-    <t>Pre-Test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="160">
   <si>
     <t>Randomization</t>
   </si>
@@ -27,6 +24,9 @@
     <t>Participant name</t>
   </si>
   <si>
+    <t>gender</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
@@ -63,6 +63,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
     <t>Serhat Can Leloglu</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>0-1</t>
   </si>
   <si>
@@ -117,6 +123,9 @@
     <t>Aysin Yeltekin</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -126,9 +135,6 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Berna Yeltekin</t>
   </si>
   <si>
@@ -153,7 +159,7 @@
     <t>Deniz</t>
   </si>
   <si>
-    <t>Ali</t>
+    <t>Ali Oral</t>
   </si>
   <si>
     <t>USA</t>
@@ -162,7 +168,7 @@
     <t>Cihan Halit</t>
   </si>
   <si>
-    <t>Selin</t>
+    <t>Selin Yucebilgin</t>
   </si>
   <si>
     <t>Alp Yucebilgin</t>
@@ -177,31 +183,46 @@
     <t>Sami Tas</t>
   </si>
   <si>
+    <t>no difference</t>
+  </si>
+  <si>
     <t>Paul Lee</t>
   </si>
   <si>
     <t>Sema Ermez</t>
   </si>
   <si>
+    <t>25 to 34</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turkey </t>
   </si>
   <si>
     <t xml:space="preserve">Onur </t>
   </si>
   <si>
-    <t>Irem</t>
-  </si>
-  <si>
-    <t>Umit</t>
-  </si>
-  <si>
-    <t>Sepideh</t>
-  </si>
-  <si>
-    <t>Amir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dila </t>
+    <t>35 to 44</t>
+  </si>
+  <si>
+    <t>Lauren Hoffman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-1 </t>
+  </si>
+  <si>
+    <t>Erica Adler</t>
+  </si>
+  <si>
+    <t>Kelsey Platt</t>
+  </si>
+  <si>
+    <t>Caleb Upkins</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler </t>
   </si>
   <si>
     <t>Doruk</t>
@@ -478,7 +499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -507,8 +528,14 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,12 +546,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -546,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -575,11 +596,17 @@
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -588,11 +615,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -818,66 +842,76 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="15.13"/>
     <col customWidth="1" min="2" max="2" width="26.25"/>
-    <col customWidth="1" min="3" max="3" width="12.38"/>
-    <col customWidth="1" min="4" max="4" width="14.25"/>
-    <col customWidth="1" min="5" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="6" width="7.38"/>
-    <col customWidth="1" min="7" max="7" width="13.75"/>
-    <col customWidth="1" min="8" max="8" width="16.25"/>
+    <col customWidth="1" min="3" max="4" width="12.38"/>
+    <col customWidth="1" min="5" max="5" width="14.25"/>
+    <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col customWidth="1" min="7" max="7" width="7.38"/>
+    <col customWidth="1" min="8" max="8" width="13.75"/>
+    <col customWidth="1" min="9" max="9" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>counta(I4:I110) &amp; " participants tested, " &amp; counta(B4:B110) - counta(I4:I110) &amp; " to go, " &amp; counta(B4:B110) &amp; " participants total."</f>
-        <v>77 participants tested, 19 to go, 96 participants total.</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <f>counta(J4:J110) &amp; " participants tested, " &amp; counta(B4:B110) - counta(J4:J110) &amp; " to go, " &amp; counta(B4:B110) &amp; " participants total."</f>
+        <v>82 participants tested, 14 to go, 96 participants total.</v>
+      </c>
+      <c r="C1" s="2">
+        <f>COUNTIFS(J4:J99, "Y",I4:I99,1,H4:H99,"control")</f>
+        <v>26</v>
+      </c>
+      <c r="D1" s="2">
+        <f>COUNTIFS(K4:K99, "Y",J4:J99,0)</f>
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -894,6 +928,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
@@ -932,37 +967,40 @@
       <c r="L3" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6">
         <v>33.0</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="8">
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="8">
         <v>0.0</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1.0</v>
+      <c r="J4" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K4" s="6">
         <v>1.0</v>
@@ -970,7 +1008,9 @@
       <c r="L4" s="6">
         <v>1.0</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -987,45 +1027,48 @@
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6">
         <v>65.0</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="8">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="8">
         <v>0.0</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2.0</v>
+      <c r="J5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K5" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M5" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -1042,45 +1085,48 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6">
         <v>64.0</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="8">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="8">
         <v>0.0</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1.0</v>
+      <c r="J6" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K6" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -1097,45 +1143,48 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="6">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6">
         <v>27.0</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2.0</v>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K7" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L7" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M7" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -1152,37 +1201,38 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6">
         <v>55.0</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="8">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="8">
         <v>0.0</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="6">
-        <v>2.0</v>
+      <c r="J8" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K8" s="6">
         <v>2.0</v>
@@ -1190,7 +1240,9 @@
       <c r="L8" s="6">
         <v>2.0</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1207,45 +1259,48 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6">
         <v>38.0</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="8">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="8">
         <v>0.0</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2.0</v>
+        <v>34</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="L9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M9" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -1262,45 +1317,48 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6">
+        <v>38.0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="6">
-        <v>38.0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="6">
-        <v>2.0</v>
+      <c r="H10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K10" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M10" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -1317,45 +1375,48 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6">
         <v>32.0</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="6">
-        <v>1.0</v>
+      <c r="H11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K11" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M11" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -1372,37 +1433,38 @@
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6">
         <v>31.0</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="8">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="8">
         <v>0.0</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2.0</v>
+      <c r="J12" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K12" s="6">
         <v>2.0</v>
@@ -1410,7 +1472,9 @@
       <c r="L12" s="6">
         <v>2.0</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -1427,37 +1491,38 @@
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="6">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6">
         <v>34.0</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="6">
-        <v>2.0</v>
+      <c r="H13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K13" s="6">
         <v>2.0</v>
@@ -1465,7 +1530,9 @@
       <c r="L13" s="6">
         <v>2.0</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -1482,45 +1549,48 @@
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="6">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6">
         <v>33.0</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="8">
+      <c r="G14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="8">
         <v>0.0</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="6">
-        <v>2.0</v>
+      <c r="J14" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K14" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L14" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M14" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1537,45 +1607,48 @@
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="6">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6">
         <v>33.0</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="6">
-        <v>1.0</v>
+      <c r="H15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K15" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1592,45 +1665,48 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="6">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6">
         <v>34.0</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2.0</v>
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K16" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M16" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -1647,45 +1723,48 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="6">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6">
         <v>34.0</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="8">
+      <c r="G17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="8">
         <v>0.0</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1.0</v>
+      <c r="J17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K17" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -1702,45 +1781,48 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="6">
+        <v>55</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6">
         <v>32.0</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="9"/>
+      <c r="H18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -1757,45 +1839,48 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="6">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6">
         <v>27.0</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="6">
-        <v>1.0</v>
+      <c r="I19" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K19" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -1812,33 +1897,38 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="E20" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="8">
+        <v>60</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="8">
         <v>0.0</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1.0</v>
+      <c r="J20" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K20" s="6">
         <v>1.0</v>
@@ -1846,417 +1936,505 @@
       <c r="L20" s="6">
         <v>1.0</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
+      <c r="M20" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L24" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
+      <c r="A26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
+      <c r="A27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
+      <c r="A28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
+      <c r="A29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="6">
+        <v>74</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
         <v>61.0</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="6">
-        <v>2.0</v>
+      <c r="H30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K30" s="6">
         <v>2.0</v>
@@ -2264,7 +2442,9 @@
       <c r="L30" s="6">
         <v>2.0</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="M30" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -2281,45 +2461,46 @@
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="6">
+        <v>76</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
         <v>55.0</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J31" s="6">
-        <v>1.0</v>
+      <c r="H31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K31" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M31" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
@@ -2336,45 +2517,46 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="6">
+        <v>78</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
         <v>22.0</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="8">
+        <v>49</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="8">
         <v>0.0</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="6">
-        <v>1.0</v>
+      <c r="J32" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K32" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L32" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M32" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -2391,45 +2573,46 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="6">
+        <v>79</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
         <v>25.0</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="8">
+        <v>49</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="8">
         <v>0.0</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="6">
-        <v>2.0</v>
+      <c r="J33" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K33" s="6">
         <v>2.0</v>
       </c>
       <c r="L33" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M33" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -2446,45 +2629,46 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="6">
+        <v>80</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6">
         <v>25.0</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="6">
-        <v>1.0</v>
+        <v>49</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K34" s="6">
         <v>1.0</v>
       </c>
       <c r="L34" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M34" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
@@ -2501,45 +2685,46 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="6">
+        <v>81</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
         <v>28.0</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="6">
-        <v>2.0</v>
+      <c r="H35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K35" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L35" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M35" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -2556,45 +2741,46 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="6">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6">
         <v>25.0</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E36" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="6">
-        <v>1.0</v>
+      <c r="H36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K36" s="6">
         <v>1.0</v>
       </c>
       <c r="L36" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M36" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -2611,43 +2797,44 @@
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="8">
         <v>0.0</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="6">
-        <v>2.0</v>
+      <c r="J37" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K37" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L37" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M37" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -2664,41 +2851,42 @@
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="6">
-        <v>1.0</v>
+        <v>30</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K38" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L38" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M38" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -2715,41 +2903,42 @@
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="8">
+        <v>30</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="8">
         <v>0.0</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="6">
-        <v>1.0</v>
+      <c r="J39" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K39" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L39" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M39" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -2766,39 +2955,40 @@
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>32</v>
+      <c r="E40" s="9"/>
+      <c r="F40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1.0</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" s="6">
-        <v>2.0</v>
+        <v>34</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="L40" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M40" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -2815,35 +3005,34 @@
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="6">
+        <v>90</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6">
         <v>24.0</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="6">
-        <v>2.0</v>
+        <v>91</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K41" s="6">
         <v>2.0</v>
@@ -2851,7 +3040,9 @@
       <c r="L41" s="6">
         <v>2.0</v>
       </c>
-      <c r="M41" s="9"/>
+      <c r="M41" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -2868,43 +3059,44 @@
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="6">
+        <v>92</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6">
         <v>25.0</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="8">
+        <v>49</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="8">
         <v>0.0</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="6">
-        <v>1.0</v>
+      <c r="J42" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K42" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L42" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M42" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -2921,43 +3113,44 @@
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="6">
+        <v>93</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6">
         <v>25.0</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="6">
-        <v>1.0</v>
+      <c r="H43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K43" s="6">
         <v>1.0</v>
       </c>
       <c r="L43" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M43" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -2974,39 +3167,40 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="8">
+      <c r="E44" s="9"/>
+      <c r="F44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="8">
         <v>0.0</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="J44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44" s="6">
-        <v>2.0</v>
+        <v>34</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="L44" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M44" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -3023,45 +3217,46 @@
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="6">
+        <v>95</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6">
         <v>22.0</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E45" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="8">
+        <v>49</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="8">
         <v>0.0</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1.0</v>
+      <c r="J45" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K45" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L45" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M45" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
@@ -3078,45 +3273,46 @@
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="6">
+        <v>96</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6">
         <v>25.0</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E46" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="8">
+        <v>49</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="8">
         <v>0.0</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="6">
-        <v>2.0</v>
+      <c r="J46" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K46" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L46" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M46" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -3133,43 +3329,44 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D47" s="9"/>
       <c r="E47" s="6" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J47" s="6">
-        <v>2.0</v>
+      <c r="H47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K47" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L47" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M47" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
@@ -3186,45 +3383,46 @@
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="6">
+        <v>99</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
         <v>25.0</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E48" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="8">
+        <v>49</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="8">
         <v>0.0</v>
       </c>
-      <c r="I48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="6">
-        <v>2.0</v>
+      <c r="J48" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K48" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L48" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M48" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
@@ -3241,43 +3439,44 @@
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J49" s="6">
-        <v>1.0</v>
+      <c r="H49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K49" s="6">
         <v>1.0</v>
       </c>
       <c r="L49" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M49" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -3294,31 +3493,30 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="8">
+      <c r="E50" s="9"/>
+      <c r="F50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="8">
         <v>0.0</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1.0</v>
+      <c r="J50" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K50" s="6">
         <v>1.0</v>
@@ -3326,7 +3524,9 @@
       <c r="L50" s="6">
         <v>1.0</v>
       </c>
-      <c r="M50" s="9"/>
+      <c r="M50" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
@@ -3343,37 +3543,38 @@
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" s="8">
+      <c r="G51" s="9"/>
+      <c r="H51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="8">
         <v>0.0</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="6">
-        <v>2.0</v>
+      <c r="J51" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K51" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L51" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M51" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -3390,37 +3591,38 @@
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="6">
-        <v>1.0</v>
+      <c r="G52" s="9"/>
+      <c r="H52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K52" s="6">
         <v>1.0</v>
       </c>
       <c r="L52" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M52" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
@@ -3437,37 +3639,38 @@
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="6">
-        <v>1.0</v>
+      <c r="G53" s="9"/>
+      <c r="H53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K53" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L53" s="6">
         <v>2.0</v>
       </c>
-      <c r="M53" s="9"/>
+      <c r="M53" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -3484,37 +3687,38 @@
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="6">
-        <v>1.0</v>
+      <c r="G54" s="9"/>
+      <c r="H54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K54" s="6">
         <v>1.0</v>
       </c>
       <c r="L54" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M54" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
@@ -3531,37 +3735,38 @@
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" s="6">
-        <v>1.0</v>
+      <c r="G55" s="9"/>
+      <c r="H55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K55" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L55" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M55" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
@@ -3578,65 +3783,66 @@
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" s="14">
+        <v>109</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="16">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" s="14">
+        <v>110</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" s="6">
-        <v>1.0</v>
+      <c r="G58" s="9"/>
+      <c r="H58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K58" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L58" s="6">
         <v>2.0</v>
       </c>
-      <c r="M58" s="9"/>
+      <c r="M58" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
@@ -3653,37 +3859,38 @@
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" s="8">
+      <c r="G59" s="9"/>
+      <c r="H59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="8">
         <v>0.0</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" s="6">
-        <v>2.0</v>
+      <c r="J59" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K59" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L59" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M59" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
@@ -3700,37 +3907,38 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" s="6">
-        <v>2.0</v>
+      <c r="G60" s="9"/>
+      <c r="H60" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K60" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L60" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M60" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M60" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
@@ -3747,37 +3955,38 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H61" s="8">
+      <c r="G61" s="9"/>
+      <c r="H61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" s="8">
         <v>0.0</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" s="6">
-        <v>1.0</v>
+      <c r="J61" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K61" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L61" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M61" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M61" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
@@ -3794,37 +4003,38 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="6">
-        <v>1.0</v>
+      <c r="G62" s="9"/>
+      <c r="H62" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K62" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L62" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M62" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M62" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
@@ -3841,37 +4051,36 @@
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="6">
+        <v>116</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6">
         <v>26.0</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E63" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J63" s="6">
-        <v>1.0</v>
+      <c r="H63" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K63" s="6">
         <v>1.0</v>
@@ -3879,7 +4088,9 @@
       <c r="L63" s="6">
         <v>1.0</v>
       </c>
-      <c r="M63" s="9"/>
+      <c r="M63" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
@@ -3896,43 +4107,44 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D64" s="9"/>
       <c r="E64" s="6" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="6">
-        <v>2.0</v>
+        <v>75</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K64" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L64" s="6">
         <v>1.0</v>
       </c>
-      <c r="M64" s="9"/>
+      <c r="M64" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
@@ -3949,43 +4161,44 @@
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D65" s="9"/>
       <c r="E65" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="8">
+        <v>49</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="8">
         <v>0.0</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="6">
-        <v>1.0</v>
+      <c r="J65" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K65" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L65" s="6">
         <v>2.0</v>
       </c>
-      <c r="M65" s="9"/>
+      <c r="M65" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
@@ -4002,35 +4215,34 @@
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C66" s="9"/>
-      <c r="D66" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D66" s="9"/>
       <c r="E66" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="6">
-        <v>2.0</v>
+        <v>49</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K66" s="6">
         <v>2.0</v>
@@ -4038,7 +4250,9 @@
       <c r="L66" s="6">
         <v>2.0</v>
       </c>
-      <c r="M66" s="9"/>
+      <c r="M66" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
@@ -4055,43 +4269,44 @@
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C67" s="9"/>
-      <c r="D67" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D67" s="9"/>
       <c r="E67" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="8">
+        <v>49</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="8">
         <v>0.0</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" s="6">
-        <v>1.0</v>
+      <c r="J67" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K67" s="6">
         <v>1.0</v>
       </c>
       <c r="L67" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M67" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
@@ -4108,43 +4323,44 @@
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D68" s="9"/>
       <c r="E68" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J68" s="6">
-        <v>2.0</v>
+        <v>49</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K68" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L68" s="6">
         <v>1.0</v>
       </c>
-      <c r="M68" s="9"/>
+      <c r="M68" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
@@ -4161,35 +4377,34 @@
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="D69" s="9"/>
       <c r="E69" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H69" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J69" s="6">
-        <v>2.0</v>
+        <v>49</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K69" s="6">
         <v>2.0</v>
@@ -4197,7 +4412,9 @@
       <c r="L69" s="6">
         <v>2.0</v>
       </c>
-      <c r="M69" s="9"/>
+      <c r="M69" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
@@ -4214,43 +4431,44 @@
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D70" s="9"/>
       <c r="E70" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" s="8">
+        <v>124</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="8">
         <v>0.0</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J70" s="6">
-        <v>1.0</v>
+      <c r="J70" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K70" s="6">
         <v>1.0</v>
       </c>
       <c r="L70" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M70" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
@@ -4267,37 +4485,38 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J71" s="6">
-        <v>1.0</v>
+      <c r="G71" s="9"/>
+      <c r="H71" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K71" s="6">
         <v>1.0</v>
       </c>
       <c r="L71" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M71" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
@@ -4314,39 +4533,40 @@
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" s="8">
+      <c r="E72" s="9"/>
+      <c r="F72" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="8">
         <v>0.0</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="J72" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K72" s="6">
-        <v>1.0</v>
+        <v>34</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="L72" s="6">
         <v>1.0</v>
       </c>
-      <c r="M72" s="9"/>
+      <c r="M72" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
@@ -4363,39 +4583,40 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" s="8">
+      <c r="E73" s="9"/>
+      <c r="F73" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="8">
         <v>0.0</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J73" s="6">
-        <v>1.0</v>
+      <c r="J73" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K73" s="6">
         <v>1.0</v>
       </c>
       <c r="L73" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M73" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M73" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
@@ -4412,57 +4633,58 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" s="14">
+        <v>129</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="D75" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="D75" s="9"/>
       <c r="E75" s="6" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" s="8">
+        <v>77</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="8">
         <v>0.0</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="6">
-        <v>1.0</v>
+      <c r="J75" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K75" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L75" s="6">
         <v>2.0</v>
       </c>
-      <c r="M75" s="9"/>
+      <c r="M75" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
@@ -4479,37 +4701,38 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" s="8">
+      <c r="G76" s="9"/>
+      <c r="H76" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" s="8">
         <v>0.0</v>
       </c>
-      <c r="I76" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="J76" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K76" s="6">
-        <v>1.0</v>
+        <v>34</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="L76" s="6">
         <v>1.0</v>
       </c>
-      <c r="M76" s="9"/>
+      <c r="M76" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
@@ -4526,39 +4749,40 @@
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="8">
+      <c r="E77" s="9"/>
+      <c r="F77" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="8">
         <v>0.0</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L77" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M77" s="9"/>
+      <c r="J77" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M77" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
@@ -4575,199 +4799,236 @@
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" s="14">
+        <v>134</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="16">
         <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" s="14">
+        <v>49</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" s="14">
+        <v>137</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H81" s="14">
+        <v>31</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" s="14">
+        <v>140</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H83" s="14">
+        <v>49</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I83" s="16">
         <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" s="14">
+        <v>49</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F85" s="5" t="s">
+      <c r="A85" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H85" s="14">
-        <v>1.0</v>
-      </c>
+      <c r="F85" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I85" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="L85" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M85" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+      <c r="AB85" s="9"/>
+      <c r="AC85" s="9"/>
+      <c r="AD85" s="9"/>
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" s="8">
+      <c r="E86" s="9"/>
+      <c r="F86" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="8">
         <v>0.0</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J86" s="6">
-        <v>1.0</v>
+      <c r="J86" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K86" s="6">
         <v>1.0</v>
       </c>
       <c r="L86" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M86" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M86" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
@@ -4784,37 +5045,38 @@
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
+      <c r="AD86" s="9"/>
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J87" s="6">
-        <v>1.0</v>
+      <c r="G87" s="9"/>
+      <c r="H87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K87" s="6">
         <v>1.0</v>
       </c>
       <c r="L87" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M87" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M87" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
@@ -4831,37 +5093,38 @@
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
+      <c r="AD87" s="9"/>
     </row>
     <row r="88">
       <c r="A88" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H88" s="8">
+      <c r="G88" s="9"/>
+      <c r="H88" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" s="8">
         <v>0.0</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J88" s="6">
-        <v>1.0</v>
+      <c r="J88" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K88" s="6">
         <v>1.0</v>
       </c>
       <c r="L88" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M88" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M88" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
@@ -4878,39 +5141,40 @@
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
+      <c r="AD88" s="9"/>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J89" s="6">
-        <v>2.0</v>
+      <c r="E89" s="9"/>
+      <c r="F89" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G89" s="9"/>
+      <c r="H89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K89" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L89" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M89" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M89" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
@@ -4927,39 +5191,40 @@
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
+      <c r="AD89" s="9"/>
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J90" s="6">
-        <v>1.0</v>
+      <c r="E90" s="9"/>
+      <c r="F90" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G90" s="9"/>
+      <c r="H90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K90" s="6">
         <v>1.0</v>
       </c>
       <c r="L90" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M90" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M90" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
@@ -4976,29 +5241,28 @@
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J91" s="6">
-        <v>2.0</v>
+      <c r="G91" s="9"/>
+      <c r="H91" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K91" s="6">
         <v>2.0</v>
@@ -5006,7 +5270,9 @@
       <c r="L91" s="6">
         <v>2.0</v>
       </c>
-      <c r="M91" s="9"/>
+      <c r="M91" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
@@ -5023,37 +5289,38 @@
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H92" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J92" s="6">
-        <v>1.0</v>
+      <c r="G92" s="9"/>
+      <c r="H92" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K92" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L92" s="6">
         <v>2.0</v>
       </c>
-      <c r="M92" s="9"/>
+      <c r="M92" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
@@ -5070,37 +5337,38 @@
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
+      <c r="AD92" s="9"/>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H93" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J93" s="6">
-        <v>2.0</v>
+      <c r="G93" s="9"/>
+      <c r="H93" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K93" s="6">
         <v>2.0</v>
       </c>
       <c r="L93" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M93" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M93" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
@@ -5117,37 +5385,38 @@
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
+      <c r="AD93" s="9"/>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" s="8">
+      <c r="G94" s="9"/>
+      <c r="H94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="8">
         <v>0.0</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J94" s="6">
-        <v>2.0</v>
+      <c r="J94" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K94" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L94" s="6">
         <v>1.0</v>
       </c>
-      <c r="M94" s="9"/>
+      <c r="M94" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
@@ -5164,37 +5433,38 @@
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
+      <c r="AD94" s="9"/>
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H95" s="8">
+      <c r="G95" s="9"/>
+      <c r="H95" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" s="8">
         <v>0.0</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J95" s="6">
-        <v>1.0</v>
+      <c r="J95" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K95" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L95" s="6">
         <v>2.0</v>
       </c>
-      <c r="M95" s="9"/>
+      <c r="M95" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
@@ -5211,37 +5481,38 @@
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
+      <c r="AD95" s="9"/>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H96" s="8">
+      <c r="G96" s="9"/>
+      <c r="H96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="8">
         <v>0.0</v>
       </c>
-      <c r="I96" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J96" s="6">
-        <v>1.0</v>
+      <c r="J96" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K96" s="6">
         <v>1.0</v>
       </c>
       <c r="L96" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M96" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M96" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
@@ -5258,37 +5529,38 @@
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
+      <c r="AD96" s="9"/>
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J97" s="6">
-        <v>2.0</v>
+      <c r="G97" s="9"/>
+      <c r="H97" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K97" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L97" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M97" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="M97" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
@@ -5305,37 +5577,38 @@
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
+      <c r="AD97" s="9"/>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" s="8">
+      <c r="G98" s="9"/>
+      <c r="H98" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="8">
         <v>0.0</v>
       </c>
-      <c r="I98" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J98" s="6">
-        <v>1.0</v>
+      <c r="J98" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K98" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L98" s="6">
         <v>2.0</v>
       </c>
-      <c r="M98" s="9"/>
+      <c r="M98" s="6">
+        <v>2.0</v>
+      </c>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
@@ -5352,37 +5625,38 @@
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
+      <c r="AD98" s="9"/>
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H99" s="8">
+      <c r="G99" s="9"/>
+      <c r="H99" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" s="8">
         <v>0.0</v>
       </c>
-      <c r="I99" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="J99" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K99" s="6">
-        <v>2.0</v>
+        <v>34</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="L99" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M99" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="M99" s="6">
+        <v>1.0</v>
+      </c>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
@@ -5399,14 +5673,14 @@
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
+      <c r="AD99" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$3:$L$99"/>
-  <mergeCells count="4">
+  <autoFilter ref="$A$3:$M$99"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
